--- a/ig/ch-epreg/StructureDefinition-ch-epreg-observation-fetal-position.xlsx
+++ b/ig/ch-epreg/StructureDefinition-ch-epreg-observation-fetal-position.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2747" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -389,7 +389,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -525,7 +525,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -554,7 +554,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -637,7 +637,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -813,7 +813,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -858,7 +858,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1098,7 +1098,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1130,7 +1130,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1186,7 +1186,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1219,7 +1219,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1231,7 +1231,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1259,7 +1259,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1339,7 +1339,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1389,7 +1389,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1422,7 +1422,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1459,7 +1459,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1540,6 +1540,9 @@
   </si>
   <si>
     <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1925,7 +1928,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1940,7 +1943,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="78.95703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.21484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -6893,7 +6896,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>327</v>
       </c>
@@ -9928,7 +9931,7 @@
         <v>485</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>211</v>
+        <v>486</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>84</v>
@@ -9967,7 +9970,7 @@
         <v>84</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>215</v>
@@ -9982,12 +9985,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10010,16 +10013,16 @@
         <v>96</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>329</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>331</v>
@@ -10071,7 +10074,7 @@
         <v>84</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -10092,7 +10095,7 @@
         <v>84</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>336</v>
@@ -10109,10 +10112,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10138,13 +10141,13 @@
         <v>193</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>343</v>
@@ -10196,7 +10199,7 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
@@ -10234,10 +10237,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10321,7 +10324,7 @@
         <v>84</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -10359,10 +10362,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10388,10 +10391,10 @@
         <v>85</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>409</v>
@@ -10446,7 +10449,7 @@
         <v>84</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
@@ -10484,12 +10487,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AQ69">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
